--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F81045-9A79-42EB-9F9B-A3F29FAF19D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -12,6 +18,7 @@
     <sheet name="表4-3地层水化学性质数据表" sheetId="3" r:id="rId3"/>
     <sheet name="表4-4水敏评价实验报告" sheetId="4" r:id="rId4"/>
     <sheet name="表4-5水敏实验参数" sheetId="5" r:id="rId5"/>
+    <sheet name="01水敏分析" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,18 +33,22 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>饱和压力（</t>
@@ -47,7 +58,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MPa</t>
     </r>
@@ -56,6 +67,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -67,6 +79,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原始气油比（</t>
@@ -76,7 +89,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -86,7 +99,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -95,7 +108,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/m</t>
     </r>
@@ -105,7 +118,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -114,6 +127,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -128,6 +142,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地层原油粘度（</t>
@@ -137,7 +152,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>mPa.s</t>
     </r>
@@ -146,6 +161,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -157,6 +173,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地层水粘度（</t>
@@ -166,7 +183,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>mPa.s</t>
     </r>
@@ -175,6 +192,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -186,6 +204,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>脱气原油密度（</t>
@@ -195,7 +214,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>g/cm³</t>
     </r>
@@ -204,6 +223,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -227,6 +247,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -236,7 +257,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>kg/m</t>
     </r>
@@ -246,7 +267,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -255,6 +276,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -266,6 +288,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -275,7 +298,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MPa</t>
     </r>
@@ -284,6 +307,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -295,6 +319,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -304,7 +329,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1/MPa</t>
     </r>
@@ -313,6 +338,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -336,7 +362,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3.05×10</t>
     </r>
@@ -346,7 +372,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-5</t>
     </r>
@@ -357,7 +383,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>pH</t>
     </r>
@@ -366,6 +392,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值</t>
@@ -377,6 +404,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>化</t>
@@ -386,7 +414,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -395,6 +423,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学</t>
@@ -404,7 +433,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -413,6 +442,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>性</t>
@@ -422,7 +452,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -431,6 +461,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>质</t>
@@ -442,6 +473,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>总矿化度</t>
@@ -451,7 +483,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(mg/L)</t>
     </r>
@@ -465,6 +497,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>阳离子</t>
@@ -474,7 +507,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(mg/L)</t>
     </r>
@@ -485,6 +518,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>阴离子</t>
@@ -494,7 +528,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(mg/L)</t>
     </r>
@@ -505,7 +539,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Na</t>
     </r>
@@ -515,7 +549,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>++</t>
     </r>
@@ -524,7 +558,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>K</t>
     </r>
@@ -534,7 +568,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>+</t>
     </r>
@@ -545,7 +579,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Ca</t>
     </r>
@@ -555,7 +589,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2+</t>
     </r>
@@ -566,7 +600,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Mg</t>
     </r>
@@ -576,7 +610,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2+</t>
     </r>
@@ -587,7 +621,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Cl</t>
     </r>
@@ -597,6 +631,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>－</t>
@@ -608,7 +643,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>SO</t>
     </r>
@@ -618,7 +653,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>4</t>
     </r>
@@ -628,7 +663,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -638,6 +673,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>－</t>
@@ -649,7 +685,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CO</t>
     </r>
@@ -659,7 +695,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -669,7 +705,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -679,6 +715,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>－</t>
@@ -690,7 +727,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>HCO</t>
     </r>
@@ -700,7 +737,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -710,6 +747,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>－</t>
@@ -721,7 +759,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OH</t>
     </r>
@@ -731,6 +769,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>－</t>
@@ -784,6 +823,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Ka/10</t>
@@ -794,6 +834,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-3</t>
@@ -803,6 +844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>μm</t>
@@ -813,6 +855,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -822,6 +865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -833,6 +877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K1（10</t>
@@ -843,6 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-3</t>
@@ -852,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>μm</t>
@@ -862,6 +909,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -871,6 +919,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）：</t>
@@ -897,6 +946,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>渗透率</t>
@@ -906,7 +956,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -915,7 +965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>( 10</t>
     </r>
@@ -925,7 +975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-3</t>
     </r>
@@ -934,7 +984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>μm</t>
     </r>
@@ -944,7 +994,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -953,23 +1003,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>初始渗透率</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势线</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透率变化</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均K</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>水敏指数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,204 +1045,73 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,20 +1119,21 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1207,13 +1141,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1221,17 +1156,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,192 +1182,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1664,253 +1432,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1968,119 +1509,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2330,156 +1851,155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="32" customWidth="1"/>
-    <col min="2" max="2" width="5.88888888888889" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="8.88671875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.55" spans="1:2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="27">
         <v>14.28</v>
       </c>
     </row>
-    <row r="2" ht="24.15" spans="1:2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="29">
         <v>12.52</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="29">
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" ht="34.35" spans="1:2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="30">
         <v>10.09</v>
       </c>
     </row>
-    <row r="5" ht="23.55" spans="1:2">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:2" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="30">
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" ht="34.35" spans="1:2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
-        <v>0.813</v>
+      <c r="B6" s="29">
+        <v>0.81299999999999994</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15.9" customHeight="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="29.55" spans="1:4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:4">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="24">
         <v>1000</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="24">
         <v>30</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:4">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="24">
         <v>850</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="24">
         <v>30</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:4">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <v>30</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2487,187 +2007,185 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="29.7" customHeight="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="26" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="15.9" customHeight="1" spans="1:11">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" ht="18.15" spans="1:11">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" ht="15.15" spans="1:11">
-      <c r="A4" s="23">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>7.9</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>50390</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>3792</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>545</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>28249</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>1932</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <v>36</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="20">
         <v>0</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="20">
         <v>84942</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:11">
-      <c r="A5" s="23">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>6.9</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>74373</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>1616</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>18</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>46911</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>1066</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>29</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <v>134</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <v>0</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="20">
         <v>124147</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="20" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -2687,7 +2205,7 @@
         <v>1003112</v>
       </c>
     </row>
-    <row r="2" ht="15.9" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
@@ -2703,7 +2221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15.9" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>42</v>
       </c>
@@ -2721,7 +2239,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" ht="16.35" spans="1:6">
+    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>45</v>
       </c>
@@ -2741,7 +2259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" ht="15.9" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>48</v>
       </c>
@@ -2756,26 +2274,27 @@
       <c r="F5" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:3">
+    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2786,7 +2305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="16.35" spans="1:3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10000</v>
       </c>
@@ -2794,10 +2313,10 @@
         <v>15.5</v>
       </c>
       <c r="C2" s="5">
-        <v>49.824</v>
-      </c>
-    </row>
-    <row r="3" ht="16.35" spans="1:3">
+        <v>49.823999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>7500</v>
       </c>
@@ -2805,10 +2324,10 @@
         <v>36.6</v>
       </c>
       <c r="C3" s="5">
-        <v>47.794</v>
-      </c>
-    </row>
-    <row r="4" ht="16.35" spans="1:3">
+        <v>47.793999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5000</v>
       </c>
@@ -2816,21 +2335,21 @@
         <v>41.5</v>
       </c>
       <c r="C4" s="5">
-        <v>45.213</v>
-      </c>
-    </row>
-    <row r="5" ht="16.35" spans="1:3">
+        <v>45.213000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2500</v>
       </c>
       <c r="B5" s="4">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C5" s="5">
-        <v>43.258</v>
-      </c>
-    </row>
-    <row r="6" ht="16.35" spans="1:3">
+        <v>43.258000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -2842,7 +2361,148 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="44">
+        <v>49.823999999999998</v>
+      </c>
+      <c r="C3" s="45">
+        <f>B3/$B$1</f>
+        <v>0.94007547169811312</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="42">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>7500</v>
+      </c>
+      <c r="B4" s="44">
+        <v>47.793999999999997</v>
+      </c>
+      <c r="C4" s="45">
+        <f t="shared" ref="C4:C7" si="0">B4/$B$1</f>
+        <v>0.90177358490566029</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="44">
+        <v>45.213000000000001</v>
+      </c>
+      <c r="C5" s="45">
+        <f t="shared" si="0"/>
+        <v>0.85307547169811326</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="44">
+        <v>43.258000000000003</v>
+      </c>
+      <c r="C6" s="45">
+        <f t="shared" si="0"/>
+        <v>0.81618867924528304</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>0</v>
+      </c>
+      <c r="B7" s="44">
+        <v>36.85</v>
+      </c>
+      <c r="C7" s="45">
+        <f t="shared" si="0"/>
+        <v>0.69528301886792454</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B7)</f>
+        <v>44.587800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F81045-9A79-42EB-9F9B-A3F29FAF19D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7740E2-FBF4-49A9-AB9C-1C5E03C4A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -1545,15 +1545,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,33 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1930,13 +1930,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -2017,52 +2017,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="37" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
@@ -2087,8 +2087,8 @@
       <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -2284,7 +2284,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2370,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B1">
@@ -2391,104 +2391,104 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="33">
         <v>10000</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="36">
         <v>49.823999999999998</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="37">
         <f>B3/$B$1</f>
         <v>0.94007547169811312</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42">
+      <c r="D3" s="35"/>
+      <c r="E3" s="34">
         <v>15.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="33">
         <v>7500</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="36">
         <v>47.793999999999997</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="37">
         <f t="shared" ref="C4:C7" si="0">B4/$B$1</f>
         <v>0.90177358490566029</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42">
+      <c r="D4" s="35"/>
+      <c r="E4" s="34">
         <v>36.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>5000</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="36">
         <v>45.213000000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="37">
         <f t="shared" si="0"/>
         <v>0.85307547169811326</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42">
+      <c r="D5" s="35"/>
+      <c r="E5" s="34">
         <v>41.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>2500</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="36">
         <v>43.258000000000003</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="37">
         <f t="shared" si="0"/>
         <v>0.81618867924528304</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42">
+      <c r="D6" s="35"/>
+      <c r="E6" s="34">
         <v>38.799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>0</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="36">
         <v>36.85</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>0.69528301886792454</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42">
+      <c r="D7" s="35"/>
+      <c r="E7" s="34">
         <v>35.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B9">
@@ -2497,7 +2497,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="31" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7740E2-FBF4-49A9-AB9C-1C5E03C4A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA61BC8-BBF1-405E-B56A-750057B6DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="表4-5水敏实验参数" sheetId="5" r:id="rId5"/>
     <sheet name="01水敏分析" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -1026,6 +1029,10 @@
   </si>
   <si>
     <t>水敏指数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势线交点</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,6 +1196,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,9 +1570,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1560,9 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1589,6 +1608,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,6 +1627,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE03EE4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1605,6 +1641,1647 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13244923331951927"/>
+          <c:y val="9.3363244424853303E-2"/>
+          <c:w val="0.83974009246006542"/>
+          <c:h val="0.7366594955856095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>水敏分析</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94007547169811312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90177358490566029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85307547169811326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81618867924528304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69528301886792454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1C2-437E-B7FE-5E7D368A47CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>趋势线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E03EE4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E03EE4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="E03EE4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="E03EE4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2000"/>
+            <c:backward val="2500"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94007547169811312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90177358490566029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85307547169811326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81618867924528304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1C2-437E-B7FE-5E7D368A47CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>交点</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9239766081871343E-2"/>
+                  <c:y val="-7.0535409167447022E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F1C2-437E-B7FE-5E7D368A47CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9744816586921844E-3"/>
+                  <c:y val="7.4684550883179115E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F1C2-437E-B7FE-5E7D368A47CA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000_);[Red]\(#,##0.0000\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$A$14:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01水敏分析'!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.77268999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97445799999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F1C2-437E-B7FE-5E7D368A47CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1552557040"/>
+        <c:axId val="1552558000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1552557040"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="12000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>矿化度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(PPM)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552558000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1552558000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>渗透率变化率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.4167870164554786E-3"/>
+              <c:y val="0.31815553335419877"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552557040"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B60108C-E4AA-47BA-BB72-CC750EECBAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="表3-1 矿物含量"/>
+      <sheetName val="表3-2 D52井粒度分布"/>
+      <sheetName val="表3-3 D33井粒度分布"/>
+      <sheetName val="表3-4 储层孔隙类型"/>
+      <sheetName val="表3-5 D52井毛管压力分析报告"/>
+      <sheetName val="表3-6 D33井毛管压力分析报告"/>
+      <sheetName val="表3-7 储层岩石力学参数"/>
+      <sheetName val="表3-8 Kaiser效应地应力测试结果"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="10">
+          <cell r="C10">
+            <v>211.16900000000001</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>98.03</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>67.128399999999999</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>48.633099999999999</v>
+          </cell>
+          <cell r="D13">
+            <v>2.1514000000000002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>33.417299999999997</v>
+          </cell>
+          <cell r="D14">
+            <v>5.8692000000000002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>23.798500000000001</v>
+          </cell>
+          <cell r="D15">
+            <v>10.970499999999999</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>16.721800000000002</v>
+          </cell>
+          <cell r="D16">
+            <v>20.0151</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>11.742900000000001</v>
+          </cell>
+          <cell r="D17">
+            <v>31.485399999999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>8.7706</v>
+          </cell>
+          <cell r="D18">
+            <v>43.784500000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>6.8817000000000004</v>
+          </cell>
+          <cell r="D19">
+            <v>50.689799999999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>5.3418000000000001</v>
+          </cell>
+          <cell r="D20">
+            <v>54.881599999999999</v>
+          </cell>
+          <cell r="F20">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="G20">
+            <v>93.631</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>3.0886999999999998</v>
+          </cell>
+          <cell r="D21">
+            <v>59.1798</v>
+          </cell>
+          <cell r="F21">
+            <v>1.0500000000000001E-2</v>
+          </cell>
+          <cell r="G21">
+            <v>94.087000000000003</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>2.1478000000000002</v>
+          </cell>
+          <cell r="D22">
+            <v>63.347799999999999</v>
+          </cell>
+          <cell r="F22">
+            <v>1.4800000000000001E-2</v>
+          </cell>
+          <cell r="G22">
+            <v>94.087000000000003</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1.4799</v>
+          </cell>
+          <cell r="D23">
+            <v>70.144400000000005</v>
+          </cell>
+          <cell r="F23">
+            <v>2.1100000000000001E-2</v>
+          </cell>
+          <cell r="G23">
+            <v>94.087000000000003</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1.0243</v>
+          </cell>
+          <cell r="D24">
+            <v>75.534800000000004</v>
+          </cell>
+          <cell r="F24">
+            <v>2.98E-2</v>
+          </cell>
+          <cell r="G24">
+            <v>94.087000000000003</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>0.71919999999999995</v>
+          </cell>
+          <cell r="D25">
+            <v>79.548000000000002</v>
+          </cell>
+          <cell r="F25">
+            <v>4.2500000000000003E-2</v>
+          </cell>
+          <cell r="G25">
+            <v>93.988500000000002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.50280000000000002</v>
+          </cell>
+          <cell r="D26">
+            <v>82.863799999999998</v>
+          </cell>
+          <cell r="F26">
+            <v>6.0199999999999997E-2</v>
+          </cell>
+          <cell r="G26">
+            <v>93.562200000000004</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.3523</v>
+          </cell>
+          <cell r="D27">
+            <v>85.555199999999999</v>
+          </cell>
+          <cell r="F27">
+            <v>8.5400000000000004E-2</v>
+          </cell>
+          <cell r="G27">
+            <v>92.962000000000003</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.24779999999999999</v>
+          </cell>
+          <cell r="D28">
+            <v>87.756600000000006</v>
+          </cell>
+          <cell r="F28">
+            <v>0.1212</v>
+          </cell>
+          <cell r="G28">
+            <v>92.156000000000006</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>0.17430000000000001</v>
+          </cell>
+          <cell r="D29">
+            <v>89.383300000000006</v>
+          </cell>
+          <cell r="F29">
+            <v>0.1719</v>
+          </cell>
+          <cell r="G29">
+            <v>91.100499999999997</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>0.12239999999999999</v>
+          </cell>
+          <cell r="D30">
+            <v>90.723799999999997</v>
+          </cell>
+          <cell r="F30">
+            <v>0.24310000000000001</v>
+          </cell>
+          <cell r="G30">
+            <v>89.804599999999994</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>8.6099999999999996E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>91.696299999999994</v>
+          </cell>
+          <cell r="F31">
+            <v>0.34329999999999999</v>
+          </cell>
+          <cell r="G31">
+            <v>88.266599999999997</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>6.0499999999999998E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>92.386799999999994</v>
+          </cell>
+          <cell r="F32">
+            <v>0.48670000000000002</v>
+          </cell>
+          <cell r="G32">
+            <v>86.482200000000006</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4.2599999999999999E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>92.830600000000004</v>
+          </cell>
+          <cell r="F33">
+            <v>0.68930000000000002</v>
+          </cell>
+          <cell r="G33">
+            <v>84.387699999999995</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>0.03</v>
+          </cell>
+          <cell r="D34">
+            <v>93.271900000000002</v>
+          </cell>
+          <cell r="F34">
+            <v>0.96609999999999996</v>
+          </cell>
+          <cell r="G34">
+            <v>81.962299999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>2.1100000000000001E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>93.466899999999995</v>
+          </cell>
+          <cell r="F35">
+            <v>1.3693</v>
+          </cell>
+          <cell r="G35">
+            <v>79.252099999999999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>1.49E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>93.520799999999994</v>
+          </cell>
+          <cell r="F36">
+            <v>1.9165000000000001</v>
+          </cell>
+          <cell r="G36">
+            <v>76.418400000000005</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>1.0500000000000001E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>93.631</v>
+          </cell>
+          <cell r="F37">
+            <v>2.6497999999999999</v>
+          </cell>
+          <cell r="G37">
+            <v>73.6678</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7.4000000000000003E-3</v>
+          </cell>
+          <cell r="D38">
+            <v>93.631</v>
+          </cell>
+          <cell r="F38">
+            <v>4.8045999999999998</v>
+          </cell>
+          <cell r="G38">
+            <v>70.655000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1936,7 +3613,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -1950,7 +3627,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -2017,52 +3694,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="39" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
@@ -2087,8 +3764,8 @@
       <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -2368,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2383,7 +4060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B1">
@@ -2391,118 +4068,157 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>10000</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="47">
         <v>49.823999999999998</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="35">
         <f>B3/$B$1</f>
         <v>0.94007547169811312</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="34">
+      <c r="D3" s="34"/>
+      <c r="E3" s="33">
         <v>15.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>7500</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="47">
         <v>47.793999999999997</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <f t="shared" ref="C4:C7" si="0">B4/$B$1</f>
         <v>0.90177358490566029</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34">
+      <c r="D4" s="34"/>
+      <c r="E4" s="33">
         <v>36.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>5000</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="47">
         <v>45.213000000000001</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <f t="shared" si="0"/>
         <v>0.85307547169811326</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33">
         <v>41.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>2500</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="47">
         <v>43.258000000000003</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <f t="shared" si="0"/>
         <v>0.81618867924528304</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34">
+      <c r="D6" s="34"/>
+      <c r="E6" s="33">
         <v>38.799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>0</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="47">
         <v>36.85</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <f t="shared" si="0"/>
         <v>0.69528301886792454</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34">
+      <c r="D7" s="34"/>
+      <c r="E7" s="33">
         <v>35.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <f>AVERAGE(B3:B7)</f>
-        <v>44.587800000000001</v>
+      <c r="B9" s="46">
+        <f>AVERAGE(B3:B6)</f>
+        <v>46.52225</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>58</v>
+      </c>
+      <c r="B10" s="46">
+        <f>(B9-B7)/B9*100</f>
+        <v>20.790589449134551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>0</v>
+      </c>
+      <c r="B14" s="45">
+        <f>1.6814/10^5*A14+0.77269</f>
+        <v>0.77268999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>12000</v>
+      </c>
+      <c r="B15" s="45">
+        <f>1.6814/10^5*A15+0.77269</f>
+        <v>0.97445799999999994</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA61BC8-BBF1-405E-B56A-750057B6DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0874C70-B72B-4FD2-A42C-0BAF4AD1C4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="表4-5水敏实验参数" sheetId="5" r:id="rId5"/>
     <sheet name="01水敏分析" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1585,6 +1582,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1608,18 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2907,383 +2904,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="表3-1 矿物含量"/>
-      <sheetName val="表3-2 D52井粒度分布"/>
-      <sheetName val="表3-3 D33井粒度分布"/>
-      <sheetName val="表3-4 储层孔隙类型"/>
-      <sheetName val="表3-5 D52井毛管压力分析报告"/>
-      <sheetName val="表3-6 D33井毛管压力分析报告"/>
-      <sheetName val="表3-7 储层岩石力学参数"/>
-      <sheetName val="表3-8 Kaiser效应地应力测试结果"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="10">
-          <cell r="C10">
-            <v>211.16900000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>98.03</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>67.128399999999999</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>48.633099999999999</v>
-          </cell>
-          <cell r="D13">
-            <v>2.1514000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>33.417299999999997</v>
-          </cell>
-          <cell r="D14">
-            <v>5.8692000000000002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>23.798500000000001</v>
-          </cell>
-          <cell r="D15">
-            <v>10.970499999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>16.721800000000002</v>
-          </cell>
-          <cell r="D16">
-            <v>20.0151</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>11.742900000000001</v>
-          </cell>
-          <cell r="D17">
-            <v>31.485399999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>8.7706</v>
-          </cell>
-          <cell r="D18">
-            <v>43.784500000000001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>6.8817000000000004</v>
-          </cell>
-          <cell r="D19">
-            <v>50.689799999999998</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>5.3418000000000001</v>
-          </cell>
-          <cell r="D20">
-            <v>54.881599999999999</v>
-          </cell>
-          <cell r="F20">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="G20">
-            <v>93.631</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>3.0886999999999998</v>
-          </cell>
-          <cell r="D21">
-            <v>59.1798</v>
-          </cell>
-          <cell r="F21">
-            <v>1.0500000000000001E-2</v>
-          </cell>
-          <cell r="G21">
-            <v>94.087000000000003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>2.1478000000000002</v>
-          </cell>
-          <cell r="D22">
-            <v>63.347799999999999</v>
-          </cell>
-          <cell r="F22">
-            <v>1.4800000000000001E-2</v>
-          </cell>
-          <cell r="G22">
-            <v>94.087000000000003</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>1.4799</v>
-          </cell>
-          <cell r="D23">
-            <v>70.144400000000005</v>
-          </cell>
-          <cell r="F23">
-            <v>2.1100000000000001E-2</v>
-          </cell>
-          <cell r="G23">
-            <v>94.087000000000003</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1.0243</v>
-          </cell>
-          <cell r="D24">
-            <v>75.534800000000004</v>
-          </cell>
-          <cell r="F24">
-            <v>2.98E-2</v>
-          </cell>
-          <cell r="G24">
-            <v>94.087000000000003</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0.71919999999999995</v>
-          </cell>
-          <cell r="D25">
-            <v>79.548000000000002</v>
-          </cell>
-          <cell r="F25">
-            <v>4.2500000000000003E-2</v>
-          </cell>
-          <cell r="G25">
-            <v>93.988500000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0.50280000000000002</v>
-          </cell>
-          <cell r="D26">
-            <v>82.863799999999998</v>
-          </cell>
-          <cell r="F26">
-            <v>6.0199999999999997E-2</v>
-          </cell>
-          <cell r="G26">
-            <v>93.562200000000004</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.3523</v>
-          </cell>
-          <cell r="D27">
-            <v>85.555199999999999</v>
-          </cell>
-          <cell r="F27">
-            <v>8.5400000000000004E-2</v>
-          </cell>
-          <cell r="G27">
-            <v>92.962000000000003</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0.24779999999999999</v>
-          </cell>
-          <cell r="D28">
-            <v>87.756600000000006</v>
-          </cell>
-          <cell r="F28">
-            <v>0.1212</v>
-          </cell>
-          <cell r="G28">
-            <v>92.156000000000006</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.17430000000000001</v>
-          </cell>
-          <cell r="D29">
-            <v>89.383300000000006</v>
-          </cell>
-          <cell r="F29">
-            <v>0.1719</v>
-          </cell>
-          <cell r="G29">
-            <v>91.100499999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0.12239999999999999</v>
-          </cell>
-          <cell r="D30">
-            <v>90.723799999999997</v>
-          </cell>
-          <cell r="F30">
-            <v>0.24310000000000001</v>
-          </cell>
-          <cell r="G30">
-            <v>89.804599999999994</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>8.6099999999999996E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>91.696299999999994</v>
-          </cell>
-          <cell r="F31">
-            <v>0.34329999999999999</v>
-          </cell>
-          <cell r="G31">
-            <v>88.266599999999997</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>6.0499999999999998E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>92.386799999999994</v>
-          </cell>
-          <cell r="F32">
-            <v>0.48670000000000002</v>
-          </cell>
-          <cell r="G32">
-            <v>86.482200000000006</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>4.2599999999999999E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>92.830600000000004</v>
-          </cell>
-          <cell r="F33">
-            <v>0.68930000000000002</v>
-          </cell>
-          <cell r="G33">
-            <v>84.387699999999995</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.03</v>
-          </cell>
-          <cell r="D34">
-            <v>93.271900000000002</v>
-          </cell>
-          <cell r="F34">
-            <v>0.96609999999999996</v>
-          </cell>
-          <cell r="G34">
-            <v>81.962299999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>2.1100000000000001E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>93.466899999999995</v>
-          </cell>
-          <cell r="F35">
-            <v>1.3693</v>
-          </cell>
-          <cell r="G35">
-            <v>79.252099999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>1.49E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>93.520799999999994</v>
-          </cell>
-          <cell r="F36">
-            <v>1.9165000000000001</v>
-          </cell>
-          <cell r="G36">
-            <v>76.418400000000005</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1.0500000000000001E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>93.631</v>
-          </cell>
-          <cell r="F37">
-            <v>2.6497999999999999</v>
-          </cell>
-          <cell r="G37">
-            <v>73.6678</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>7.4000000000000003E-3</v>
-          </cell>
-          <cell r="D38">
-            <v>93.631</v>
-          </cell>
-          <cell r="F38">
-            <v>4.8045999999999998</v>
-          </cell>
-          <cell r="G38">
-            <v>70.655000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -3606,14 +3226,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -3627,7 +3247,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -3701,45 +3321,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="37" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
@@ -3764,8 +3384,8 @@
       <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -4047,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -4088,7 +3708,7 @@
       <c r="A3" s="32">
         <v>10000</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="39">
         <v>49.823999999999998</v>
       </c>
       <c r="C3" s="35">
@@ -4104,7 +3724,7 @@
       <c r="A4" s="32">
         <v>7500</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <v>47.793999999999997</v>
       </c>
       <c r="C4" s="35">
@@ -4120,7 +3740,7 @@
       <c r="A5" s="32">
         <v>5000</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="39">
         <v>45.213000000000001</v>
       </c>
       <c r="C5" s="35">
@@ -4136,7 +3756,7 @@
       <c r="A6" s="32">
         <v>2500</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="39">
         <v>43.258000000000003</v>
       </c>
       <c r="C6" s="35">
@@ -4152,7 +3772,7 @@
       <c r="A7" s="32">
         <v>0</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="39">
         <v>36.85</v>
       </c>
       <c r="C7" s="35">
@@ -4168,7 +3788,7 @@
       <c r="A9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="38">
         <f>AVERAGE(B3:B6)</f>
         <v>46.52225</v>
       </c>
@@ -4177,13 +3797,13 @@
       <c r="A10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="38">
         <f>(B9-B7)/B9*100</f>
         <v>20.790589449134551</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4199,7 +3819,7 @@
       <c r="A14" s="32">
         <v>0</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="37">
         <f>1.6814/10^5*A14+0.77269</f>
         <v>0.77268999999999999</v>
       </c>
@@ -4208,7 +3828,7 @@
       <c r="A15" s="32">
         <v>12000</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="37">
         <f>1.6814/10^5*A15+0.77269</f>
         <v>0.97445799999999994</v>
       </c>

--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0874C70-B72B-4FD2-A42C-0BAF4AD1C4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFFBC23-0B42-471F-85D1-8B258D9D7616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -1585,9 +1585,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,6 +1614,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3226,14 +3226,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -3247,7 +3247,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -3321,45 +3321,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="41" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
@@ -3384,8 +3384,8 @@
       <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -3667,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3708,7 +3708,7 @@
       <c r="A3" s="32">
         <v>10000</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>49.823999999999998</v>
       </c>
       <c r="C3" s="35">
@@ -3724,11 +3724,11 @@
       <c r="A4" s="32">
         <v>7500</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>47.793999999999997</v>
       </c>
       <c r="C4" s="35">
-        <f t="shared" ref="C4:C7" si="0">B4/$B$1</f>
+        <f>B4/$B$1</f>
         <v>0.90177358490566029</v>
       </c>
       <c r="D4" s="34"/>
@@ -3740,11 +3740,11 @@
       <c r="A5" s="32">
         <v>5000</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>45.213000000000001</v>
       </c>
       <c r="C5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C7" si="0">B5/$B$1</f>
         <v>0.85307547169811326</v>
       </c>
       <c r="D5" s="34"/>
@@ -3756,7 +3756,7 @@
       <c r="A6" s="32">
         <v>2500</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>43.258000000000003</v>
       </c>
       <c r="C6" s="35">
@@ -3772,7 +3772,7 @@
       <c r="A7" s="32">
         <v>0</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>36.85</v>
       </c>
       <c r="C7" s="35">
@@ -3788,7 +3788,7 @@
       <c r="A9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <f>AVERAGE(B3:B6)</f>
         <v>46.52225</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="A10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <f>(B9-B7)/B9*100</f>
         <v>20.790589449134551</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="A14" s="32">
         <v>0</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="47">
         <f>1.6814/10^5*A14+0.77269</f>
         <v>0.77268999999999999</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="A15" s="32">
         <v>12000</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="47">
         <f>1.6814/10^5*A15+0.77269</f>
         <v>0.97445799999999994</v>
       </c>

--- a/Excel/表4流体物性基本参数.xlsx
+++ b/Excel/表4流体物性基本参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFFBC23-0B42-471F-85D1-8B258D9D7616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FC0BC-164A-4C50-AC26-3310ABFD11F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表4-1流体物性数据表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -1031,6 +1031,28 @@
   <si>
     <t>趋势线交点</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na^+/Cl^-</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Na^+-Cl^-)/SO4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏林式水型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>重碳酸钠型</t>
+  </si>
+  <si>
+    <t>大陆环境条件下形成的水型，含油良好的标志，该水型水在油田中分布很广</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1591,6 +1613,9 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,8 +1640,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3233,7 +3258,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -3247,7 +3272,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
@@ -3312,54 +3337,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="40" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
@@ -3384,8 +3409,8 @@
       <c r="I3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -3455,6 +3480,55 @@
       </c>
       <c r="K5" s="20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.9</v>
+      </c>
+      <c r="B10">
+        <f>B4/E4</f>
+        <v>1.7837799568126305</v>
+      </c>
+      <c r="C10">
+        <f>(B4-E4)/F4</f>
+        <v>11.460144927536232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.9</v>
+      </c>
+      <c r="B11">
+        <f>B5/E5</f>
+        <v>1.5854064078787491</v>
+      </c>
+      <c r="C11">
+        <f>(B5-E5)/F5</f>
+        <v>25.761726078799249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3551,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E836B-E205-424E-A6B8-55EC3177FFB6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3818,7 @@
         <v>45.213000000000001</v>
       </c>
       <c r="C5" s="35">
-        <f t="shared" ref="C4:C7" si="0">B5/$B$1</f>
+        <f t="shared" ref="C5:C7" si="0">B5/$B$1</f>
         <v>0.85307547169811326</v>
       </c>
       <c r="D5" s="34"/>
@@ -3819,7 +3893,7 @@
       <c r="A14" s="32">
         <v>0</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="39">
         <f>1.6814/10^5*A14+0.77269</f>
         <v>0.77268999999999999</v>
       </c>
@@ -3828,7 +3902,7 @@
       <c r="A15" s="32">
         <v>12000</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="39">
         <f>1.6814/10^5*A15+0.77269</f>
         <v>0.97445799999999994</v>
       </c>
@@ -3836,9 +3910,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B9" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>